--- a/Docs/combine.xlsx
+++ b/Docs/combine.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\Cert-Agent-V3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F5784E-9657-46A8-BB1A-B707A5E4E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF73896-F260-4417-87F6-8F4337569A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{96E8FD2A-B54E-46DD-8F4B-4849FDCC3517}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{96E8FD2A-B54E-46DD-8F4B-4849FDCC3517}"/>
   </bookViews>
   <sheets>
     <sheet name="combine" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="178">
   <si>
     <t>Field</t>
   </si>
@@ -517,6 +518,94 @@
   </si>
   <si>
     <t>Cilantro</t>
+  </si>
+  <si>
+    <t>1140 Kg</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>231009/2025/2</t>
+  </si>
+  <si>
+    <t>Dokki-252930</t>
+  </si>
+  <si>
+    <t>Fennel Eax</t>
+  </si>
+  <si>
+    <t>186-39-03-01-2737</t>
+  </si>
+  <si>
+    <t>9 Kg</t>
+  </si>
+  <si>
+    <t>1260 Kg</t>
+  </si>
+  <si>
+    <t>510 Kg</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>5385 Kg</t>
+  </si>
+  <si>
+    <t>139861/139862</t>
+  </si>
+  <si>
+    <t>12402 Kg</t>
+  </si>
+  <si>
+    <t>OCR line_index</t>
+  </si>
+  <si>
+    <t>Dokki-207963</t>
+  </si>
+  <si>
+    <t>90, 91, 92, 93</t>
+  </si>
+  <si>
+    <t>"text": "‘Certificate",
+      "bbox": [
+        214,
+        1072,
+        438,
+        1117
+      ]
+    },
+    {
+      "line_index": 91,
+      "text": "Number",
+      "bbox": [
+        453,
+        1071,
+        616,
+        1105
+      ]
+    },
+    {
+      "line_index": 92,
+      "text": ":",
+      "bbox": [
+        761,
+        1079,
+        769,
+        1103
+      ]
+    },
+    {
+      "line_index": 93,
+      "text": "Dokki-207963",
+      "bbox": [
+        794,
+        1068,
+        1057,
+        1101
+      ]
+    },</t>
   </si>
 </sst>
 </file>
@@ -1125,6 +1214,24 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0998DFEB-BDD9-478B-A7DD-A9889FFABF39}" name="Table3" displayName="Table3" ref="A1:F193" totalsRowShown="0">
+  <autoFilter ref="A1:F193" xr:uid="{0998DFEB-BDD9-478B-A7DD-A9889FFABF39}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
+    <sortCondition ref="B1:B193"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6609EAA4-F0CA-427B-933F-8C594CB09BC4}" name="File"/>
+    <tableColumn id="2" xr3:uid="{D54832A1-0347-465C-B0B8-632E082BB2B0}" name="Field"/>
+    <tableColumn id="3" xr3:uid="{5561512E-69E5-4EC6-93D5-E7C0A2374D1C}" name="Value"/>
+    <tableColumn id="4" xr3:uid="{BCB2E205-194A-4783-A6EE-E31B911F5463}" name="Expected"/>
+    <tableColumn id="5" xr3:uid="{E2A03867-ECE4-4BD2-8AA8-977963AB5C4B}" name="OCR text"/>
+    <tableColumn id="6" xr3:uid="{2D300C36-6965-4184-8BB0-1E5E349C71E1}" name="OCR line_index"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4020,8 +4127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1475A-5DA1-4C7E-9A6A-E8B710F99B71}">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6226,6 +6333,1999 @@
       </c>
       <c r="B197" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823CB3FC-1951-4F78-8170-A2C90E929C94}">
+  <dimension ref="A1:F193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>139385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>139690</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>139755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>139863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>139868</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>139906</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>139857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>139894</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>139749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>13975013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>139356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>139800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>139848</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>139849</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>139679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>101</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>47</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>51</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>61</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>64</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>67</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>68</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>82</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>84</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>85</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>89</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>97</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>99</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>101</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>103</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>105</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>108</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>113</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>115</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>117</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>121</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>124</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
